--- a/highest_accurcy_scores.xlsx
+++ b/highest_accurcy_scores.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="2120" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12780" windowHeight="2120"/>
   </bookViews>
   <sheets>
     <sheet name="White" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="23">
   <si>
     <t>4 features</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Highest accuracy</t>
   </si>
   <si>
-    <t>Different normalization</t>
-  </si>
-  <si>
     <t>Outliers removed from df</t>
   </si>
   <si>
@@ -79,6 +76,24 @@
   </si>
   <si>
     <t>Standard Scaler</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>6m Split</t>
+  </si>
+  <si>
+    <t>Forest Tuned Robust</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Higher Kappa than 79% accuracy with original labels</t>
   </si>
 </sst>
 </file>
@@ -442,26 +457,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="17.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="8.7265625" style="2"/>
+    <col min="10" max="10" width="18.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -472,88 +493,180 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>73.27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>73.180000000000007</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B5" s="2">
         <v>79.290000000000006</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>78.81</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2">
-        <v>72.760000000000005</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>70.7</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>82.04</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
+        <v>78.81</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="I5" s="2">
+        <v>73.06</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2">
+        <v>73.02</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>70.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>82.04</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
         <v>81.540000000000006</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E7" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B8" s="2">
         <v>82.14</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
         <v>81.69</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E8" s="2">
         <v>0.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
-        <v>10</v>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="2">
+        <v>82.24</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="7">
+        <v>81.8</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="2">
+        <v>82.14</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="3">
+        <v>83.06</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>82.61</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -564,10 +677,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -578,12 +692,15 @@
     <col min="4" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -594,18 +711,33 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2">
+        <v>72.650000000000006</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +754,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
@@ -630,7 +762,7 @@
         <v>71.88</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="7">
         <v>71.099999999999994</v>
@@ -639,7 +771,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
@@ -656,7 +788,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>2</v>
       </c>
@@ -664,7 +796,7 @@
         <v>82.35</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D8" s="7">
         <v>81.69</v>
@@ -673,80 +805,22 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="2">
-        <v>82.24</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="7">
-        <v>81.8</v>
-      </c>
-      <c r="E11" s="7">
-        <v>0.61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="2">
-        <v>82.14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="7">
-        <v>81.650000000000006</v>
-      </c>
-      <c r="E12" s="7">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="2">
-        <v>83.06</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="7">
-        <v>82.61</v>
-      </c>
-      <c r="E13" s="7">
-        <v>0.63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
     </row>

--- a/highest_accurcy_scores.xlsx
+++ b/highest_accurcy_scores.xlsx
@@ -461,7 +461,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
